--- a/source/demo/javascript/nodejs/excel/001.xlsx
+++ b/source/demo/javascript/nodejs/excel/001.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +413,89 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
